--- a/Data_frame/balancos_definitivos/AMPI3.xlsx
+++ b/Data_frame/balancos_definitivos/AMPI3.xlsx
@@ -4778,9 +4778,7 @@
       <c r="N57" t="n">
         <v>0</v>
       </c>
-      <c r="O57" t="n">
-        <v>288580.864</v>
-      </c>
+      <c r="O57" t="inlineStr"/>
       <c r="P57" t="n">
         <v>819828.992</v>
       </c>
@@ -4790,24 +4788,12 @@
       <c r="R57" t="n">
         <v>869395.008</v>
       </c>
-      <c r="S57" t="n">
-        <v>0</v>
-      </c>
-      <c r="T57" t="n">
-        <v>0</v>
-      </c>
-      <c r="U57" t="n">
-        <v>0</v>
-      </c>
-      <c r="V57" t="n">
-        <v>0</v>
-      </c>
-      <c r="W57" t="n">
-        <v>0</v>
-      </c>
-      <c r="X57" t="n">
-        <v>0</v>
-      </c>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4852,9 +4838,7 @@
       <c r="N58" t="n">
         <v>0</v>
       </c>
-      <c r="O58" t="n">
-        <v>-61931.008</v>
-      </c>
+      <c r="O58" t="inlineStr"/>
       <c r="P58" t="n">
         <v>-237830</v>
       </c>
@@ -4864,24 +4848,12 @@
       <c r="R58" t="n">
         <v>-282875.008</v>
       </c>
-      <c r="S58" t="n">
-        <v>0</v>
-      </c>
-      <c r="T58" t="n">
-        <v>0</v>
-      </c>
-      <c r="U58" t="n">
-        <v>0</v>
-      </c>
-      <c r="V58" t="n">
-        <v>0</v>
-      </c>
-      <c r="W58" t="n">
-        <v>0</v>
-      </c>
-      <c r="X58" t="n">
-        <v>0</v>
-      </c>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4926,9 +4898,7 @@
       <c r="N59" t="n">
         <v>0</v>
       </c>
-      <c r="O59" t="n">
-        <v>226649.984</v>
-      </c>
+      <c r="O59" t="inlineStr"/>
       <c r="P59" t="n">
         <v>581998.976</v>
       </c>
@@ -4939,7 +4909,7 @@
         <v>586520</v>
       </c>
       <c r="S59" t="n">
-        <v>1099187.072</v>
+        <v>1099186.944</v>
       </c>
       <c r="T59" t="n">
         <v>634443.008</v>
@@ -4951,7 +4921,7 @@
         <v>651105.024</v>
       </c>
       <c r="W59" t="n">
-        <v>697026.048</v>
+        <v>697025.9840000001</v>
       </c>
       <c r="X59" t="n">
         <v>683601.024</v>
@@ -5000,9 +4970,7 @@
       <c r="N60" t="n">
         <v>0</v>
       </c>
-      <c r="O60" t="n">
-        <v>-249629.952</v>
-      </c>
+      <c r="O60" t="inlineStr"/>
       <c r="P60" t="n">
         <v>-423004.992</v>
       </c>
@@ -5074,9 +5042,7 @@
       <c r="N61" t="n">
         <v>0</v>
       </c>
-      <c r="O61" t="n">
-        <v>-22980.032</v>
-      </c>
+      <c r="O61" t="inlineStr"/>
       <c r="P61" t="n">
         <v>158994</v>
       </c>
@@ -5087,7 +5053,7 @@
         <v>200664.992</v>
       </c>
       <c r="S61" t="n">
-        <v>224399.04</v>
+        <v>224399.024</v>
       </c>
       <c r="T61" t="n">
         <v>155482</v>
@@ -5148,9 +5114,7 @@
       <c r="N62" t="n">
         <v>0</v>
       </c>
-      <c r="O62" t="n">
-        <v>34834</v>
-      </c>
+      <c r="O62" t="inlineStr"/>
       <c r="P62" t="n">
         <v>-1406</v>
       </c>
@@ -5222,9 +5186,7 @@
       <c r="N63" t="n">
         <v>-1850</v>
       </c>
-      <c r="O63" t="n">
-        <v>-45583.008</v>
-      </c>
+      <c r="O63" t="inlineStr"/>
       <c r="P63" t="n">
         <v>-22204</v>
       </c>
@@ -5259,58 +5221,24 @@
           <t xml:space="preserve">Perdas pela Não Recuperabilidade de Ativos </t>
         </is>
       </c>
-      <c r="B64" t="n">
-        <v>0</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" t="n">
-        <v>0</v>
-      </c>
-      <c r="O64" t="n">
-        <v>0</v>
-      </c>
-      <c r="P64" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>0</v>
-      </c>
-      <c r="R64" t="n">
-        <v>0</v>
-      </c>
-      <c r="S64" t="n">
-        <v>0</v>
-      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
       <c r="T64" t="n">
         <v>0</v>
       </c>
@@ -5370,9 +5298,7 @@
       <c r="N65" t="n">
         <v>0</v>
       </c>
-      <c r="O65" t="n">
-        <v>0</v>
-      </c>
+      <c r="O65" t="inlineStr"/>
       <c r="P65" t="n">
         <v>0</v>
       </c>
@@ -5444,9 +5370,7 @@
       <c r="N66" t="n">
         <v>0</v>
       </c>
-      <c r="O66" t="n">
-        <v>0</v>
-      </c>
+      <c r="O66" t="inlineStr"/>
       <c r="P66" t="n">
         <v>0</v>
       </c>
@@ -5518,9 +5442,7 @@
       <c r="N67" t="n">
         <v>15218</v>
       </c>
-      <c r="O67" t="n">
-        <v>6354</v>
-      </c>
+      <c r="O67" t="inlineStr"/>
       <c r="P67" t="n">
         <v>-8063</v>
       </c>
@@ -5592,9 +5514,7 @@
       <c r="N68" t="n">
         <v>-7334</v>
       </c>
-      <c r="O68" t="n">
-        <v>59375</v>
-      </c>
+      <c r="O68" t="inlineStr"/>
       <c r="P68" t="n">
         <v>-22076</v>
       </c>
@@ -5646,7 +5566,7 @@
         <v>68756</v>
       </c>
       <c r="H69" t="n">
-        <v>-45220.008</v>
+        <v>-45220</v>
       </c>
       <c r="I69" t="n">
         <v>13983</v>
@@ -5666,9 +5586,7 @@
       <c r="N69" t="n">
         <v>64</v>
       </c>
-      <c r="O69" t="n">
-        <v>38676</v>
-      </c>
+      <c r="O69" t="inlineStr"/>
       <c r="P69" t="n">
         <v>15967</v>
       </c>
@@ -5740,9 +5658,7 @@
       <c r="N70" t="n">
         <v>-7398</v>
       </c>
-      <c r="O70" t="n">
-        <v>-107789</v>
-      </c>
+      <c r="O70" t="inlineStr"/>
       <c r="P70" t="n">
         <v>-38043</v>
       </c>
@@ -5814,9 +5730,7 @@
       <c r="N71" t="n">
         <v>0</v>
       </c>
-      <c r="O71" t="n">
-        <v>0</v>
-      </c>
+      <c r="O71" t="inlineStr"/>
       <c r="P71" t="n">
         <v>0</v>
       </c>
@@ -5826,24 +5740,12 @@
       <c r="R71" t="n">
         <v>0</v>
       </c>
-      <c r="S71" t="n">
-        <v>0</v>
-      </c>
-      <c r="T71" t="n">
-        <v>0</v>
-      </c>
-      <c r="U71" t="n">
-        <v>0</v>
-      </c>
-      <c r="V71" t="n">
-        <v>0</v>
-      </c>
-      <c r="W71" t="n">
-        <v>0</v>
-      </c>
-      <c r="X71" t="n">
-        <v>0</v>
-      </c>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5888,9 +5790,7 @@
       <c r="N72" t="n">
         <v>0</v>
       </c>
-      <c r="O72" t="n">
-        <v>0</v>
-      </c>
+      <c r="O72" t="inlineStr"/>
       <c r="P72" t="n">
         <v>0</v>
       </c>
@@ -5900,24 +5800,12 @@
       <c r="R72" t="n">
         <v>0</v>
       </c>
-      <c r="S72" t="n">
-        <v>0</v>
-      </c>
-      <c r="T72" t="n">
-        <v>0</v>
-      </c>
-      <c r="U72" t="n">
-        <v>0</v>
-      </c>
-      <c r="V72" t="n">
-        <v>0</v>
-      </c>
-      <c r="W72" t="n">
-        <v>0</v>
-      </c>
-      <c r="X72" t="n">
-        <v>0</v>
-      </c>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5962,9 +5850,7 @@
       <c r="N73" t="n">
         <v>0</v>
       </c>
-      <c r="O73" t="n">
-        <v>0</v>
-      </c>
+      <c r="O73" t="inlineStr"/>
       <c r="P73" t="n">
         <v>0</v>
       </c>
@@ -5974,24 +5860,12 @@
       <c r="R73" t="n">
         <v>0</v>
       </c>
-      <c r="S73" t="n">
-        <v>0</v>
-      </c>
-      <c r="T73" t="n">
-        <v>0</v>
-      </c>
-      <c r="U73" t="n">
-        <v>0</v>
-      </c>
-      <c r="V73" t="n">
-        <v>0</v>
-      </c>
-      <c r="W73" t="n">
-        <v>0</v>
-      </c>
-      <c r="X73" t="n">
-        <v>0</v>
-      </c>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -6036,9 +5910,7 @@
       <c r="N74" t="n">
         <v>6034</v>
       </c>
-      <c r="O74" t="n">
-        <v>32000</v>
-      </c>
+      <c r="O74" t="inlineStr"/>
       <c r="P74" t="n">
         <v>105245</v>
       </c>
@@ -6061,7 +5933,7 @@
         <v>86372</v>
       </c>
       <c r="W74" t="n">
-        <v>153905.984</v>
+        <v>153906</v>
       </c>
       <c r="X74" t="n">
         <v>148392</v>
@@ -6110,9 +5982,7 @@
       <c r="N75" t="n">
         <v>0</v>
       </c>
-      <c r="O75" t="n">
-        <v>66261</v>
-      </c>
+      <c r="O75" t="inlineStr"/>
       <c r="P75" t="n">
         <v>-24184</v>
       </c>
@@ -6184,9 +6054,7 @@
       <c r="N76" t="n">
         <v>0</v>
       </c>
-      <c r="O76" t="n">
-        <v>-80824</v>
-      </c>
+      <c r="O76" t="inlineStr"/>
       <c r="P76" t="n">
         <v>9033</v>
       </c>
@@ -6258,9 +6126,7 @@
       <c r="N77" t="n">
         <v>0</v>
       </c>
-      <c r="O77" t="n">
-        <v>0</v>
-      </c>
+      <c r="O77" t="inlineStr"/>
       <c r="P77" t="n">
         <v>-657</v>
       </c>
@@ -6270,24 +6136,12 @@
       <c r="R77" t="n">
         <v>-658</v>
       </c>
-      <c r="S77" t="n">
-        <v>0</v>
-      </c>
-      <c r="T77" t="n">
-        <v>0</v>
-      </c>
-      <c r="U77" t="n">
-        <v>0</v>
-      </c>
-      <c r="V77" t="n">
-        <v>0</v>
-      </c>
-      <c r="W77" t="n">
-        <v>0</v>
-      </c>
-      <c r="X77" t="n">
-        <v>0</v>
-      </c>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -6332,9 +6186,7 @@
       <c r="N78" t="n">
         <v>0</v>
       </c>
-      <c r="O78" t="n">
-        <v>0</v>
-      </c>
+      <c r="O78" t="inlineStr"/>
       <c r="P78" t="n">
         <v>0</v>
       </c>
@@ -6344,24 +6196,12 @@
       <c r="R78" t="n">
         <v>0</v>
       </c>
-      <c r="S78" t="n">
-        <v>0</v>
-      </c>
-      <c r="T78" t="n">
-        <v>0</v>
-      </c>
-      <c r="U78" t="n">
-        <v>0</v>
-      </c>
-      <c r="V78" t="n">
-        <v>0</v>
-      </c>
-      <c r="W78" t="n">
-        <v>0</v>
-      </c>
-      <c r="X78" t="n">
-        <v>0</v>
-      </c>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -6369,57 +6209,29 @@
           <t>Part. de Acionistas Não Controladores</t>
         </is>
       </c>
-      <c r="B79" t="n">
-        <v>0</v>
-      </c>
-      <c r="C79" t="n">
-        <v>0</v>
-      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
-      <c r="E79" t="n">
-        <v>0</v>
-      </c>
-      <c r="F79" t="n">
-        <v>0</v>
-      </c>
-      <c r="G79" t="n">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0</v>
-      </c>
-      <c r="L79" t="n">
-        <v>0</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0</v>
-      </c>
-      <c r="N79" t="n">
-        <v>0</v>
-      </c>
-      <c r="O79" t="n">
-        <v>0</v>
-      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
       <c r="P79" t="n">
         <v>-76555</v>
       </c>
-      <c r="Q79" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q79" t="inlineStr"/>
       <c r="R79" t="n">
         <v>-99452</v>
       </c>
       <c r="S79" t="n">
-        <v>0</v>
+        <v>-102268</v>
       </c>
       <c r="T79" t="n">
         <v>-77028</v>
@@ -6431,7 +6243,7 @@
         <v>-64494</v>
       </c>
       <c r="W79" t="n">
-        <v>-96712.992</v>
+        <v>-96713</v>
       </c>
       <c r="X79" t="n">
         <v>-90726</v>
@@ -6480,9 +6292,7 @@
       <c r="N80" t="n">
         <v>6034</v>
       </c>
-      <c r="O80" t="n">
-        <v>18264</v>
-      </c>
+      <c r="O80" t="inlineStr"/>
       <c r="P80" t="n">
         <v>12882</v>
       </c>
